--- a/spreadsheets/20160104adwords.xlsx
+++ b/spreadsheets/20160104adwords.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="23460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Impressions</t>
   </si>
@@ -38,16 +39,30 @@
   <si>
     <t>Click-thru Rate</t>
   </si>
+  <si>
+    <t>2016 (thru July 23rd)</t>
+  </si>
+  <si>
+    <t>Dollars spent on adwords</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,20 +132,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -138,41 +155,90 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -195,6 +261,42 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -213,6 +315,29 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -231,6 +356,43 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -267,23 +429,29 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -291,11 +459,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:D8" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:D8" headerRowCount="0" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <tableColumns count="3">
-    <tableColumn id="1" name=" " totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="2013" headerRowDxfId="6" dataDxfId="4" totalsRowDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="2014" totalsRowFunction="sum" headerRowDxfId="7" dataDxfId="3" totalsRowDxfId="10"/>
+    <tableColumn id="1" name=" " totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" name="2013" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="2014" totalsRowFunction="sum" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:D8" headerRowCount="0" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name=" " totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="12"/>
+    <tableColumn id="2" name="2013" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="2014" totalsRowFunction="sum" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="Column1" headerRowDxfId="4" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -623,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -636,15 +816,18 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="C2" s="5">
         <v>2013</v>
       </c>
       <c r="D2" s="5">
         <v>2014</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:5">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -666,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -677,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -688,7 +871,7 @@
         <v>24377</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -699,7 +882,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:5">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -711,7 +894,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
@@ -723,4 +906,137 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2014</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1046722</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>228262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>31108</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>72050</v>
+      </c>
+      <c r="C5" s="1">
+        <v>24377</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>690</v>
+      </c>
+      <c r="C6" s="1">
+        <v>266</v>
+      </c>
+      <c r="D6" s="7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="9" customFormat="1">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f>D6/D5</f>
+        <v>9.1844638707535686E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13">
+        <v>2069.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>